--- a/biology/Zoologie/Hypochilus_thorelli/Hypochilus_thorelli.xlsx
+++ b/biology/Zoologie/Hypochilus_thorelli/Hypochilus_thorelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypochilus thorelli est une espèce d'araignées aranéomorphes de la famille des Hypochilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypochilus thorelli est une espèce d'araignées aranéomorphes de la famille des Hypochilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Appalaches aux États-Unis[1],[2]. Elle se rencontre dans l'extrême Ouest de la Virginie, dans l'Est du Kentucky, au Tennessee, dans l'Ouest de la Caroline du Nord, dans l'Ouest de la Caroline du Sud, dans l'extrême Nord de la Géorgie et dans le Nord de l'Alabama[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Appalaches aux États-Unis,. Elle se rencontre dans l'extrême Ouest de la Virginie, dans l'Est du Kentucky, au Tennessee, dans l'Ouest de la Caroline du Nord, dans l'Ouest de la Caroline du Sud, dans l'extrême Nord de la Géorgie et dans le Nord de l'Alabama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre en zone montagneuse entre 397 et 1 891 m d'altitude[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre en zone montagneuse entre 397 et 1 891 m d'altitude.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Gertsch en 1958 mesure 10,10 mm et la femelle 15,45 mm[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Gertsch en 1958 mesure 10,10 mm et la femelle 15,45 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tord Tamerlan Teodor Thorell[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tord Tamerlan Teodor Thorell.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Marx, 1888 : On a new and interesting spider. Entomologica Americana, vol. 4, p. 160-162 (texte intégral).</t>
         </is>
